--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/10 AUDITORIA PATRIMONIO/3 INTEGRACIÓN DEL PATRIMONIO.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/10 AUDITORIA PATRIMONIO/3 INTEGRACIÓN DEL PATRIMONIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\10 AUDITORIA PATRIMONIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\10 AUDITORIA PATRIMONIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDE6A70-0FBE-4C68-A16C-73F393A766DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$B$11:$K$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -78,12 +82,6 @@
     <t>INTEGRACION PATRIMONIO</t>
   </si>
   <si>
-    <t xml:space="preserve">      Auditoria Financiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Empresa, XYZ, S. A. </t>
-  </si>
-  <si>
     <t>F)</t>
   </si>
   <si>
@@ -96,19 +94,25 @@
     <t>Conclusión:</t>
   </si>
   <si>
-    <t xml:space="preserve">                               Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t>J-2</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Auditoria Financiera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -552,43 +556,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -600,9 +604,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -630,6 +631,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,7 +719,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1057,14 +1070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="31"/>
+    <col min="1" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1072,11 +1085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,8 +1102,8 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="L4" s="36" t="s">
-        <v>21</v>
+      <c r="L4" s="35" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
@@ -1100,95 +1113,100 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="K6" s="26" t="s">
+      <c r="F6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="K6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="27"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="K7" s="26" t="s">
+      <c r="F7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="K7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="28"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+      <c r="F8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="K8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="28"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="29" t="s">
+      <c r="F9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="K9" s="26" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="K9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="28"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="44" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="50" t="s">
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="48" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="35" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="48"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="49"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1198,9 +1216,9 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1210,9 +1228,9 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1222,9 +1240,9 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1234,9 +1252,9 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1246,9 +1264,9 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -1258,9 +1276,9 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1270,9 +1288,9 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1282,9 +1300,9 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1294,9 +1312,9 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1306,9 +1324,9 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1318,9 +1336,9 @@
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -1330,11 +1348,11 @@
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16"/>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="17">
         <f>SUM(F13:F24)</f>
         <v>0</v>
@@ -1352,48 +1370,45 @@
       <c r="K25" s="20"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
-        <v>19</v>
+      <c r="B28" s="28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="H35" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="H35" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="29" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B11:K12">
+  <autoFilter ref="B11:K12" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
-  <mergeCells count="19">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:I11"/>
+  <mergeCells count="23">
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="B11:B12"/>
@@ -1406,6 +1421,13 @@
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
